--- a/abdd/rubrica.xlsx
+++ b/abdd/rubrica.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t xml:space="preserve">Nombre del Grupo:</t>
   </si>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">SI</t>
   </si>
   <si>
-    <t xml:space="preserve">Adjunto en el fichero DDL.txt</t>
+    <t xml:space="preserve">Adjunto en el fichero plsql_completo.txt en el apartado del DDL</t>
   </si>
   <si>
     <t xml:space="preserve">Se ha creado el tablespace independiente TS_FINTECH y TS_INDICES para el trabajo?</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">¿Se han probado todas las funcionalidades insertando datos coherentes?</t>
   </si>
   <si>
-    <t xml:space="preserve">Las pruebas se encuentran en pruebas.txt</t>
+    <t xml:space="preserve">Adjunto en el fichero plsql_completo.txt en el apartado de Datos Exportados</t>
   </si>
   <si>
     <t xml:space="preserve">Si has contestado NO a alguna de las pregunas anteriores, el trabajo se considera no superado</t>
@@ -191,40 +191,43 @@
     <t xml:space="preserve">PK_OPERATIVA</t>
   </si>
   <si>
+    <t xml:space="preserve">Linea 451 del plsql_completo.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cambio de divisa</t>
   </si>
   <si>
+    <t xml:space="preserve">Linea 491 del plsql_completo.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">J_CAMBIO_EURO</t>
   </si>
   <si>
+    <t xml:space="preserve">Linea 528 plsql_completo.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">¿Es el diseño (modelo E/R) de la base de datos correcto?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Se comprueban restricciones semánticas? El rango debe estar dentro de ..., números no negativos en ciertos campos, comparación de fechas, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tal y como se ha creado el modelo entidad relacion que se puede ver en DDL.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se han creado Restricciones NOT NULL / UNIQUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Se indican en el DDL.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Seguridad</t>
   </si>
   <si>
     <t xml:space="preserve">Se han creado  roles adecuadamente</t>
   </si>
   <si>
-    <t xml:space="preserve">Se encuentran en seguridad.txt</t>
+    <t xml:space="preserve">Se encuentran en fisico.txt al final, en la parte de seguridad</t>
   </si>
   <si>
     <t xml:space="preserve">Se han asignado usuarios a los roles adecuadamente</t>
   </si>
   <si>
-    <t xml:space="preserve">Se encuentra en seguridad.txt</t>
+    <t xml:space="preserve">Se encuentra en fisico.txt al final, en la parte de seguridad</t>
   </si>
   <si>
     <t xml:space="preserve">Se han asignado los permisos de forma restrictiva a todos los usuarios. Ejemplos:</t>
@@ -260,7 +263,7 @@
     <t xml:space="preserve">Se han introducido (SUFICIENTES) datos para comprobar la integridad referencial del modelo lógico?</t>
   </si>
   <si>
-    <t xml:space="preserve">Si, están en datos.txt</t>
+    <t xml:space="preserve">Si, están en el pl_sql, en el apartado de Datos Exportados</t>
   </si>
   <si>
     <t xml:space="preserve">Se han tratado correctamente las mayusculas/minusculas en triggers, índices, etc.</t>
@@ -291,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -348,12 +351,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -429,7 +426,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -494,18 +491,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -530,24 +515,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -582,14 +563,14 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="57.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="51.42"/>
@@ -799,17 +780,19 @@
       <c r="D15" s="1"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="18" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="17" t="n">
+      <c r="F16" s="0" t="n">
         <f aca="false">IF(D16="NO",0,1)</f>
         <v>1</v>
       </c>
@@ -938,7 +921,7 @@
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="11"/>
@@ -988,7 +971,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <f aca="false">A31+1</f>
         <v>8</v>
@@ -1007,156 +990,162 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" s="23" customFormat="true" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="25" t="s">
+    <row r="35" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" s="20" customFormat="true" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="23" t="n">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="20" t="n">
         <f aca="false">SUM(F6:F34)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="38" s="21" customFormat="true" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="26" t="s">
+    <row r="38" s="18" customFormat="true" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" s="23" customFormat="true" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="25" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" s="20" customFormat="true" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-    </row>
-    <row r="41" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-    </row>
-    <row r="42" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" s="24" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="23" t="n">
+      <c r="E43" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="20" t="n">
         <f aca="false">IF(D43="NO",0,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24" t="s">
-        <v>56</v>
+    <row r="44" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="23" t="n">
+      <c r="E44" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="20" t="n">
         <f aca="false">IF(D44="NO",0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F45" s="0" t="n">
         <f aca="false">IF(D45="NO",0,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-    </row>
-    <row r="47" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="23" t="n">
+    <row r="46" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20" t="n">
         <f aca="false">A42+1</f>
         <v>2</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" s="23" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="20" customFormat="true" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="F48" s="20" t="n">
         <f aca="false">IF(D48="NO",0,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="20" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1"/>
-      <c r="C49" s="27" t="s">
-        <v>61</v>
+      <c r="C49" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="F49" s="20" t="n">
         <f aca="false">IF(D49="NO",0,1)</f>
         <v>1</v>
       </c>
@@ -1167,20 +1156,20 @@
         <v>3</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F51" s="0" t="n">
         <f aca="false">IF(D51="NO",0,1)</f>
@@ -1189,13 +1178,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F52" s="0" t="n">
         <f aca="false">IF(D52="NO",0,1)</f>
@@ -1204,17 +1193,17 @@
     </row>
     <row r="53" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="0" t="n">
@@ -1224,10 +1213,10 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="0" t="n">
@@ -1237,10 +1226,10 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="0" t="n">
@@ -1250,10 +1239,10 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="0" t="n">
@@ -1263,10 +1252,10 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="0" t="n">
@@ -1280,17 +1269,17 @@
         <v>4</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="0" t="n">
@@ -1308,8 +1297,8 @@
         <f aca="false">A59+1</f>
         <v>5</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>77</v>
+      <c r="B62" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -1317,13 +1306,13 @@
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F63" s="0" t="n">
         <f aca="false">IF(D63="NO",0,1)</f>
@@ -1332,13 +1321,13 @@
     </row>
     <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="0" t="n">
         <f aca="false">IF(D64="NO",0,1)</f>
@@ -1347,13 +1336,13 @@
     </row>
     <row r="65" customFormat="false" ht="53.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="29" t="s">
-        <v>83</v>
+      <c r="E65" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="F65" s="0" t="n">
         <f aca="false">IF(D65="NO",0,1)</f>
@@ -1362,13 +1351,13 @@
     </row>
     <row r="66" customFormat="false" ht="50.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C66" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="29" t="s">
-        <v>85</v>
+      <c r="E66" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="F66" s="0" t="n">
         <f aca="false">IF(D66="NO",0,1)</f>
@@ -1407,14 +1396,14 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>86</v>
+      <c r="A1" s="26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1424,7 +1413,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
